--- a/docs/shr-core-MedicationStatement.xlsx
+++ b/docs/shr-core-MedicationStatement.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="297">
   <si>
     <t>Path</t>
   </si>
@@ -149,7 +149,7 @@
     <t>A record of the use of a medication.
 Although FHIR supports the asserter (information source) and date asserted, it does not have a place for the author (who created and is responsible for the statement) and recorder (who entered the statement).
 The treatment of 'not taken' has changed from DSTU2 and STU3 to R4. In R4, status and statusReason are used to indicate medications not taken. For upward compatibility, the 'not taken' attributes are profiled out.
-ReasonCode is a choice of CodeableConcept or ref(Condition) in DSTU2, and limited to one reason. In STU3 and R4, there can be multiple reason codes, and multiple reason references, simultaneously.</t>
+ReasonCode is a choice of CodeableConcept or ref(Condition) in DSTU2, and limited to one reason (pick one type). In STU3 and R4, there can be multiple reason codes, and multiple reason references, simultaneously.</t>
   </si>
   <si>
     <t>mst-2:Reason for use is only permitted if wasNotTaken is false {null}
@@ -429,14 +429,24 @@
     <t>The encounter or episode of care</t>
   </si>
   <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
+    <t>medicationstatementrelatedrequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationStatementRelatedRequest-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The justification, as reference to a condition or observation.</t>
+    <t>MedicationStatementRelatedRequest</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Category-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The type, kind, or class of this item.</t>
   </si>
   <si>
     <t>MedicationStatement.extension.id</t>
@@ -473,49 +483,10 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Category-extension"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>medicationstatementrelatedrequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationStatementRelatedRequest-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>MedicationStatementRelatedRequest</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Category-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The type, kind, or class of this item.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Category-extension"/&gt;</t>
   </si>
   <si>
     <t>MedicationStatement.extension.valueCodeableConcept</t>
@@ -525,10 +496,19 @@
 </t>
   </si>
   <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
     <t>preferred</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-statement-category</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>treatmentintent</t>
@@ -548,13 +528,13 @@
 </t>
   </si>
   <si>
-    <t>A description and/or code explaining the premature termination of the study.</t>
+    <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
   </si>
   <si>
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TerminationReason-extension"/&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/MedicationTerminationReasonVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/TreatmentTerminationReasonVS</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -692,7 +672,11 @@
     <t>SubstanceAdministration-&gt;Reason-&gt;Observation-&gt;Value</t>
   </si>
   <si>
-    <t>MedicationStatement.reasonForUseCodeableConcept</t>
+    <t>MedicationStatement.reasonForUse[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition]]}</t>
   </si>
   <si>
     <t>A reason for why the medication is being/was taken.</t>
@@ -702,9 +686,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonForUse[x]</t>
   </si>
   <si>
     <t>MedicationStatement.effective[x]</t>
@@ -754,11 +735,11 @@
     <t>Likely references would be to MedicationOrder, MedicationDispense, Claim, Observation or QuestionnaireAnswers.</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication]]}
-</t>
+    <t>MedicationStatement.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication]]}</t>
   </si>
   <si>
     <t>What medication was taken</t>
@@ -774,9 +755,6 @@
   </si>
   <si>
     <t>http://fhir.org/guides/argonaut/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
     <t>SubstanceAdministration&gt;Component&gt;SubstanceAdministrationRequest.consumable</t>
@@ -883,7 +861,7 @@
     <t>A coded specification of or a reference to the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>MedicationStatement.dosage.site[x]</t>
@@ -1119,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1152,7 +1130,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.87890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -3084,9 +3062,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>39</v>
       </c>
@@ -3109,9 +3089,7 @@
       <c r="J19" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>59</v>
-      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
         <v>136</v>
       </c>
@@ -3137,7 +3115,7 @@
         <v>39</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>39</v>
@@ -3164,13 +3142,13 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
@@ -3179,7 +3157,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -3190,7 +3168,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3201,7 +3179,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3213,13 +3191,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3270,13 +3248,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3285,7 +3263,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3296,7 +3274,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3304,10 +3282,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3319,13 +3297,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3334,7 +3312,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>39</v>
@@ -3376,13 +3354,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3391,7 +3369,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3402,7 +3380,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3425,13 +3403,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3440,7 +3418,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>39</v>
@@ -3482,10 +3460,10 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>48</v>
@@ -3508,17 +3486,15 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>48</v>
@@ -3533,11 +3509,13 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3561,16 +3539,14 @@
         <v>39</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>39</v>
@@ -3588,13 +3564,13 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
@@ -3603,7 +3579,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3617,7 +3593,7 @@
         <v>123</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>39</v>
@@ -3627,7 +3603,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
@@ -3639,11 +3615,11 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3720,9 +3696,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>39</v>
       </c>
@@ -3731,7 +3709,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
@@ -3743,13 +3721,11 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>59</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3773,7 +3749,7 @@
         <v>39</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>39</v>
@@ -3800,13 +3776,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -3815,7 +3791,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -3826,7 +3802,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3837,7 +3813,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -3849,13 +3825,13 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3906,13 +3882,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -3921,7 +3897,7 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -3932,7 +3908,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3940,10 +3916,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>39</v>
@@ -3955,13 +3931,13 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3970,7 +3946,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>39</v>
@@ -4012,13 +3988,13 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -4027,7 +4003,7 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -4038,7 +4014,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4061,13 +4037,13 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4076,7 +4052,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>39</v>
@@ -4094,11 +4070,13 @@
         <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>39</v>
@@ -4116,10 +4094,10 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>48</v>
@@ -4142,20 +4120,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
@@ -4167,11 +4143,13 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4195,16 +4173,14 @@
         <v>39</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4222,13 +4198,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4237,7 +4213,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4248,13 +4224,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4267,19 +4241,23 @@
         <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4328,7 +4306,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4343,7 +4321,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4354,7 +4332,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4365,7 +4343,7 @@
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>39</v>
@@ -4374,16 +4352,16 @@
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4407,7 +4385,7 @@
         <v>39</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>39</v>
@@ -4434,13 +4412,13 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -4449,18 +4427,18 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4468,13 +4446,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
@@ -4483,13 +4461,13 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4513,7 +4491,7 @@
         <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>39</v>
@@ -4540,13 +4518,13 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -4555,18 +4533,18 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>39</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4574,7 +4552,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>48</v>
@@ -4586,16 +4564,14 @@
         <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="K33" s="2"/>
       <c r="L33" t="s" s="2">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4604,7 +4580,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>39</v>
@@ -4619,7 +4595,7 @@
         <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>39</v>
@@ -4646,10 +4622,10 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>48</v>
@@ -4661,18 +4637,18 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4686,7 +4662,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>39</v>
@@ -4695,13 +4671,13 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4725,14 +4701,16 @@
         <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4750,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4765,7 +4743,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4774,23 +4752,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>49</v>
@@ -4799,17 +4777,15 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -4834,13 +4810,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -4858,13 +4834,13 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
@@ -4873,7 +4849,7 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -4884,7 +4860,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4895,32 +4871,34 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="Q36" t="s" s="2">
         <v>39</v>
       </c>
@@ -4964,13 +4942,13 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
@@ -4979,18 +4957,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4998,28 +4976,28 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5046,13 +5024,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>39</v>
@@ -5070,33 +5048,33 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>186</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5119,11 +5097,11 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" t="s" s="2">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5150,13 +5128,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
@@ -5174,7 +5152,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5192,7 +5170,7 @@
         <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5200,7 +5178,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5223,15 +5201,17 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5280,7 +5260,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5295,18 +5275,18 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5314,28 +5294,28 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5362,13 +5342,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
@@ -5386,10 +5366,10 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>48</v>
@@ -5412,7 +5392,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5423,34 +5403,34 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P41" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5494,13 +5474,13 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
@@ -5509,18 +5489,18 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5528,30 +5508,32 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -5576,13 +5558,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5600,25 +5582,25 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -5626,7 +5608,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5649,11 +5631,13 @@
         <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="L43" t="s" s="2">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5680,13 +5664,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -5704,13 +5688,13 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
@@ -5719,7 +5703,7 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -5728,9 +5712,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5738,13 +5722,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>39</v>
@@ -5753,17 +5737,15 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -5812,7 +5794,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5827,10 +5809,10 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -5838,18 +5820,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -5858,18 +5840,20 @@
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -5918,13 +5902,13 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -5933,7 +5917,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -5944,11 +5928,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -5961,22 +5945,22 @@
         <v>39</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6026,7 +6010,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6041,7 +6025,7 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -6050,9 +6034,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6060,32 +6044,30 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6110,13 +6092,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>240</v>
+        <v>39</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6134,10 +6116,10 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>48</v>
@@ -6149,10 +6131,10 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6160,7 +6142,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6183,13 +6165,13 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6240,13 +6222,13 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
@@ -6255,7 +6237,7 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6266,9 +6248,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6286,16 +6270,16 @@
         <v>39</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6322,10 +6306,10 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="Y49" t="s" s="2">
         <v>39</v>
@@ -6334,19 +6318,17 @@
         <v>39</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6361,7 +6343,7 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -6372,18 +6354,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>39</v>
@@ -6392,20 +6374,18 @@
         <v>39</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>65</v>
+        <v>258</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6427,16 +6407,14 @@
         <v>39</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>39</v>
@@ -6454,13 +6432,13 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -6469,7 +6447,7 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
@@ -6480,40 +6458,38 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I51" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6535,16 +6511,14 @@
         <v>39</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -6562,13 +6536,13 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -6577,7 +6551,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -6588,7 +6562,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6611,13 +6585,13 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6644,13 +6618,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
@@ -6668,7 +6642,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6683,7 +6657,7 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
@@ -6694,7 +6668,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6717,15 +6691,17 @@
         <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -6750,13 +6726,11 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -6774,7 +6748,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -6789,7 +6763,7 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
@@ -6800,11 +6774,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>39</v>
       </c>
@@ -6825,13 +6797,13 @@
         <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6858,10 +6830,10 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="Y54" t="s" s="2">
         <v>39</v>
@@ -6870,17 +6842,19 @@
         <v>39</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AB54" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -6895,7 +6869,7 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -6906,7 +6880,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6929,13 +6903,13 @@
         <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6959,14 +6933,16 @@
         <v>39</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>39</v>
@@ -6984,7 +6960,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -6999,7 +6975,7 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -7010,7 +6986,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7033,13 +7009,13 @@
         <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>160</v>
+        <v>293</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7063,14 +7039,16 @@
         <v>39</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>39</v>
@@ -7088,7 +7066,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7103,547 +7081,17 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X58" s="2"/>
-      <c r="Y58" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL61" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL61">
+  <autoFilter ref="A1:AL56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7653,7 +7101,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
